--- a/Connectivities Naming.xlsx
+++ b/Connectivities Naming.xlsx
@@ -48,9 +48,6 @@
     <t>across one-way XY</t>
   </si>
   <si>
-    <t>Solo Connectivities (w/in each individual network X)</t>
-  </si>
-  <si>
     <t>Internetwork Connectivities (2 networks: X and Y)</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>Naming Convention</t>
+  </si>
+  <si>
+    <t>Intranetwork Connectivities (w/in each individual network X)</t>
   </si>
 </sst>
 </file>
@@ -512,48 +512,48 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="52.1640625" customWidth="1"/>
     <col min="2" max="2" width="41.6640625" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="2" customHeight="1"/>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -561,7 +561,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -569,7 +569,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -577,7 +577,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -585,7 +585,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -593,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -601,7 +601,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -609,7 +609,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
